--- a/mechanical_turk/Dialogue.xlsx
+++ b/mechanical_turk/Dialogue.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\ARL\mechanical_turk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaibhav\Documents\UVA\Fall\Capstone\Code\ARL\mechanical_turk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C04545D-C7CE-46F2-AF43-527D1854A062}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5112" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5112"/>
   </bookViews>
   <sheets>
     <sheet name="DME" sheetId="1" r:id="rId1"/>
@@ -22,17 +21,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DME!$A$1:$H$999</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Earthquake!$A$1:$Z$1000</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A98" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A98" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,12 +48,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A156" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A156" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="678">
   <si>
     <t>Identifier</t>
   </si>
@@ -2093,12 +2092,24 @@
   </si>
   <si>
     <t>14d</t>
+  </si>
+  <si>
+    <t>Avatar_Identifier</t>
+  </si>
+  <si>
+    <t>Avatar_table_id</t>
+  </si>
+  <si>
+    <t>30, 31</t>
+  </si>
+  <si>
+    <t>3-4AB-R, 3-5C-R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m\-d"/>
   </numFmts>
@@ -2761,14 +2772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H999"/>
+  <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2776,60 +2787,67 @@
     <col min="1" max="1" width="10.44140625" customWidth="1"/>
     <col min="2" max="2" width="11.109375" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="104.109375" customWidth="1"/>
-    <col min="5" max="5" width="158.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="8" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" customWidth="1"/>
+    <col min="6" max="6" width="37.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
     <col min="9" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="27" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="52">
         <v>1</v>
       </c>
       <c r="B2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="E2" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="J2" s="52" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="52">
         <v>1</v>
       </c>
@@ -2837,402 +2855,462 @@
         <v>32</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="G3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="J3" s="52" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="27" t="s">
+      <c r="C4" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7"/>
+      <c r="J4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="27" t="s">
+      <c r="C5" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7"/>
+      <c r="J5" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="7"/>
+      <c r="J6" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="F7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="52">
         <v>1</v>
       </c>
       <c r="B8" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="E8" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="F8" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="G8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="J8" s="52" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="52">
         <v>1</v>
       </c>
       <c r="B9" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="E9" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="F9" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="G9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52" t="s">
+      <c r="I9" s="52"/>
+      <c r="J9" s="52" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="J10" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="52">
         <v>1</v>
       </c>
       <c r="B11" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="E11" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="F11" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="G11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="J11" s="52" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="27" t="s">
+      <c r="C12" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="G12" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="27" t="s">
+      <c r="H12" s="7"/>
+      <c r="I12" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="J12" s="27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="G13" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="7"/>
+      <c r="J13" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="G14" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="7"/>
+      <c r="J14" s="27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="52">
         <v>1</v>
       </c>
       <c r="B15" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="E15" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="G15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="52" t="s">
+      <c r="J15" s="52" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="27" t="s">
+      <c r="C16" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="G16" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="27" t="s">
+      <c r="H16" s="7"/>
+      <c r="I16" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="J16" s="27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="27" t="s">
+      <c r="C17" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="7"/>
+      <c r="J17" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="27" t="s">
+      <c r="C18" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="7"/>
+      <c r="J18" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="52">
         <v>1</v>
       </c>
       <c r="B19" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="E19" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="F19" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="G19" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="52" t="s">
+      <c r="J19" s="52" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="18" t="s">
+      <c r="C20" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="J20" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="52">
         <v>2</v>
       </c>
@@ -3240,45 +3318,51 @@
         <v>32</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="G21" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="J21" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="52">
         <v>2</v>
       </c>
       <c r="B22" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="E22" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="F22" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="G22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="52" t="s">
+      <c r="J22" s="52" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="52">
         <v>2</v>
       </c>
@@ -3286,246 +3370,288 @@
         <v>32</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="G23" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="J23" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="52">
         <v>2</v>
       </c>
       <c r="B24" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="E24" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="F24" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="G24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="52" t="s">
+      <c r="J24" s="52" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="G25" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="7"/>
+      <c r="J25" s="27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="27" t="s">
+      <c r="C26" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="G26" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="7"/>
+      <c r="J26" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="27" t="s">
+      <c r="C27" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="G27" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="7"/>
+      <c r="J27" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="52">
         <v>2</v>
       </c>
       <c r="B28" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="E28" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="F28" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="G28" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="52" t="s">
+      <c r="J28" s="52" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="27" t="s">
+      <c r="C29" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="G29" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="28" t="s">
+      <c r="H29" s="7"/>
+      <c r="I29" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="J29" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="27" t="s">
+      <c r="C30" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="G30" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="7"/>
+      <c r="J30" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="27" t="s">
+      <c r="C31" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="G31" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="28" t="s">
+      <c r="H31" s="7"/>
+      <c r="I31" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="J31" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="52">
         <v>2</v>
       </c>
       <c r="B32" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="E32" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="F32" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="G32" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="52" t="s">
+      <c r="J32" s="52" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="52">
         <v>2</v>
       </c>
       <c r="B33" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="E33" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="F33" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="E33" s="65" t="s">
+      <c r="G33" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="H33" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="52" t="s">
+      <c r="J33" s="52" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="52">
         <v>2</v>
       </c>
@@ -3533,800 +3659,932 @@
         <v>32</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+      <c r="E34" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="G34" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="H34" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H34" s="18" t="s">
+      <c r="J34" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" t="s">
         <v>215</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="F35" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="E35" s="65" t="s">
+      <c r="G35" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="H35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H35" t="s">
+      <c r="J35" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="18" t="s">
+      <c r="C36" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="D36">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H36" s="18" t="s">
+      <c r="J36" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
       <c r="B37" t="s">
         <v>227</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>229</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="F37" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E37" s="65" t="s">
+      <c r="G37" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="H37" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H37" t="s">
+      <c r="J37" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="18" t="s">
+      <c r="C38" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="H38" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="18" t="s">
+      <c r="J38" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39" t="s">
         <v>239</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>229</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="F39" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="E39" s="67" t="s">
+      <c r="G39" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="H39" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H39" t="s">
+      <c r="J39" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="18" t="s">
+      <c r="C40" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H40" s="18" t="s">
+      <c r="J40" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
       <c r="B41" t="s">
         <v>249</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>229</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="F41" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="H41" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H41" t="s">
+      <c r="J41" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="B42" t="s">
         <v>252</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="F42" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="E42" s="65" t="s">
+      <c r="G42" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="H42" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G42" s="68"/>
-      <c r="H42" t="s">
+      <c r="I42" s="68"/>
+      <c r="J42" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="18" t="s">
+      <c r="C43" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D43">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="H43" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H43" s="18" t="s">
+      <c r="J43" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44" t="s">
         <v>262</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="F44" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="E44" s="65" t="s">
+      <c r="G44" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="H44" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="68"/>
-      <c r="H44" t="s">
+      <c r="I44" s="68"/>
+      <c r="J44" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2</v>
       </c>
       <c r="B45" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="27" t="s">
+      <c r="C45" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="D45">
+        <v>18</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="27" t="s">
         <v>656</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="G45" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="F45" s="7"/>
-      <c r="H45" s="27" t="s">
+      <c r="H45" s="7"/>
+      <c r="J45" s="27" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2</v>
       </c>
       <c r="B46" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="27" t="s">
+      <c r="C46" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="D46">
+        <v>18</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="E46" s="28" t="s">
+      <c r="G46" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="H46" s="27" t="s">
+      <c r="H46" s="7"/>
+      <c r="J46" s="27" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2</v>
       </c>
       <c r="B47" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="27" t="s">
+      <c r="C47" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="D47">
+        <v>18</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="G47" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="F47" s="7"/>
-      <c r="H47" s="27" t="s">
+      <c r="H47" s="7"/>
+      <c r="J47" s="27" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>2</v>
       </c>
       <c r="B48" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" s="27" t="s">
+      <c r="C48" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="D48">
+        <v>18</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="E48" s="28" t="s">
+      <c r="G48" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="F48" s="7"/>
-      <c r="H48" s="27" t="s">
+      <c r="H48" s="7"/>
+      <c r="J48" s="27" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
       <c r="B49" t="s">
         <v>288</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="F49" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="H49" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H49" t="s">
+      <c r="J49" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>2</v>
       </c>
       <c r="B50" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="27" t="s">
+      <c r="C50" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="D50">
+        <v>19</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="G50" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="28" t="s">
+      <c r="H50" s="7"/>
+      <c r="I50" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="H50" s="27" t="s">
+      <c r="J50" s="27" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>2</v>
       </c>
       <c r="B51" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51" s="27" t="s">
+      <c r="C51" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="D51">
+        <v>19</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E51" s="28" t="s">
+      <c r="G51" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="28" t="s">
+      <c r="H51" s="7"/>
+      <c r="I51" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="H51" s="27" t="s">
+      <c r="J51" s="27" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>2</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="C52" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="D52">
+        <v>19</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E52" s="28" t="s">
+      <c r="G52" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="9" t="s">
+      <c r="H52" s="7"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>2</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="C53" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="D53">
+        <v>19</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="G53" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="F53" s="7"/>
-      <c r="H53" s="9" t="s">
+      <c r="H53" s="7"/>
+      <c r="J53" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="52">
         <v>2</v>
       </c>
       <c r="B54" s="52" t="s">
         <v>336</v>
       </c>
-      <c r="C54" s="52" t="s">
+      <c r="E54" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="F54" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="G54" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="H54" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H54" s="52" t="s">
+      <c r="J54" s="52" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>2</v>
       </c>
       <c r="B55" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" s="27" t="s">
+      <c r="C55" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="D55">
+        <v>20</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="E55" s="28" t="s">
+      <c r="G55" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="28" t="s">
+      <c r="H55" s="7"/>
+      <c r="I55" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="H55" s="27" t="s">
+      <c r="J55" s="27" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>2</v>
       </c>
       <c r="B56" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56" s="27" t="s">
+      <c r="C56" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="D56">
+        <v>20</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="E56" s="28" t="s">
+      <c r="G56" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="28" t="s">
+      <c r="H56" s="7"/>
+      <c r="I56" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="H56" s="27" t="s">
+      <c r="J56" s="27" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>2</v>
       </c>
       <c r="B57" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D57" s="29" t="s">
+      <c r="C57" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="D57">
+        <v>20</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="G57" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="28" t="s">
+      <c r="H57" s="7"/>
+      <c r="I57" s="28" t="s">
         <v>372</v>
       </c>
-      <c r="H57" s="27" t="s">
+      <c r="J57" s="27" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>2</v>
       </c>
       <c r="B58" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D58" s="27" t="s">
+      <c r="C58" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="D58">
+        <v>20</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="E58" s="28" t="s">
+      <c r="G58" s="28" t="s">
         <v>378</v>
       </c>
-      <c r="F58" s="7"/>
-      <c r="H58" s="27" t="s">
+      <c r="H58" s="7"/>
+      <c r="J58" s="27" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2</v>
       </c>
       <c r="B59" t="s">
         <v>379</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="43" t="s">
+      <c r="F59" s="43" t="s">
         <v>381</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="G59" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="H59" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H59" t="s">
+      <c r="J59" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>2</v>
       </c>
       <c r="B60" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D60" s="29" t="s">
+      <c r="C60" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="D60" s="52">
+        <v>21</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="E60" s="28" t="s">
+      <c r="G60" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="28" t="s">
+      <c r="H60" s="7"/>
+      <c r="I60" s="28" t="s">
         <v>387</v>
       </c>
-      <c r="H60" s="27" t="s">
+      <c r="J60" s="27" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>2</v>
       </c>
       <c r="B61" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D61" s="29" t="s">
+      <c r="C61" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="D61" s="52">
+        <v>21</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="E61" s="28" t="s">
+      <c r="G61" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="28" t="s">
+      <c r="H61" s="7"/>
+      <c r="I61" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="H61" s="27" t="s">
+      <c r="J61" s="27" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>2</v>
       </c>
       <c r="B62" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62" s="29" t="s">
+      <c r="C62" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="D62" s="52">
+        <v>21</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="E62" s="28" t="s">
+      <c r="G62" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="F62" s="7"/>
-      <c r="H62" s="27" t="s">
+      <c r="H62" s="7"/>
+      <c r="J62" s="27" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2</v>
       </c>
       <c r="B63" t="s">
         <v>402</v>
       </c>
-      <c r="C63" t="s">
+      <c r="E63" t="s">
         <v>60</v>
       </c>
-      <c r="D63" s="44" t="s">
+      <c r="F63" s="44" t="s">
         <v>403</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="G63" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="H63" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H63" t="s">
+      <c r="J63" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>2</v>
       </c>
       <c r="B64" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C64" t="s">
-        <v>35</v>
-      </c>
-      <c r="D64" s="45" t="s">
+      <c r="C64" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="D64">
+        <v>22</v>
+      </c>
+      <c r="E64" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="G64" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="H64" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H64" s="18" t="s">
+      <c r="J64" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>2</v>
       </c>
       <c r="B65" t="s">
         <v>413</v>
       </c>
-      <c r="C65" t="s">
+      <c r="E65" t="s">
         <v>60</v>
       </c>
-      <c r="D65" s="44" t="s">
+      <c r="F65" s="44" t="s">
         <v>414</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="G65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="H65" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H65" t="s">
+      <c r="J65" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2</v>
       </c>
       <c r="B66" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C66" t="s">
-        <v>35</v>
-      </c>
-      <c r="D66" s="45" t="s">
+      <c r="C66" s="52" t="s">
+        <v>413</v>
+      </c>
+      <c r="D66">
+        <v>23</v>
+      </c>
+      <c r="E66" t="s">
+        <v>35</v>
+      </c>
+      <c r="F66" s="45" t="s">
         <v>418</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="G66" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="H66" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H66" s="18" t="s">
+      <c r="J66" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="52">
         <v>2</v>
       </c>
       <c r="B67" s="52" t="s">
         <v>420</v>
       </c>
-      <c r="C67" s="52" t="s">
+      <c r="E67" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D67" s="44" t="s">
+      <c r="F67" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="G67" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="H67" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G67" s="52"/>
-      <c r="H67" s="52" t="s">
+      <c r="I67" s="52"/>
+      <c r="J67" s="52" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="52">
         <v>3</v>
       </c>
       <c r="B68" s="52" t="s">
         <v>422</v>
       </c>
-      <c r="C68" s="52" t="s">
+      <c r="E68" s="52" t="s">
         <v>424</v>
       </c>
-      <c r="D68" s="47" t="s">
+      <c r="F68" s="47" t="s">
         <v>426</v>
       </c>
-      <c r="E68" s="65" t="s">
+      <c r="G68" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="H68" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G68" s="68"/>
-      <c r="H68" s="52" t="s">
+      <c r="I68" s="68"/>
+      <c r="J68" s="52" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="52">
         <v>3</v>
       </c>
@@ -4334,1304 +4592,1412 @@
         <v>32</v>
       </c>
       <c r="C69" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="D69" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="D69">
+        <v>25</v>
+      </c>
+      <c r="E69" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="G69" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="H69" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H69" s="18" t="s">
+      <c r="J69" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>3</v>
       </c>
       <c r="B70" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D70" s="30" t="s">
+      <c r="C70" s="52" t="s">
+        <v>422</v>
+      </c>
+      <c r="D70">
+        <v>25</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F70" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="E70" s="27" t="s">
+      <c r="G70" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="F70" s="7"/>
-      <c r="H70" s="27" t="s">
+      <c r="H70" s="7"/>
+      <c r="J70" s="27" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>3</v>
       </c>
       <c r="B71" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D71" s="29" t="s">
+      <c r="C71" s="52" t="s">
+        <v>422</v>
+      </c>
+      <c r="D71">
+        <v>25</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F71" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="E71" s="27" t="s">
+      <c r="G71" s="27" t="s">
         <v>437</v>
       </c>
-      <c r="F71" s="7"/>
-      <c r="H71" s="27" t="s">
+      <c r="H71" s="7"/>
+      <c r="J71" s="27" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>3</v>
       </c>
       <c r="B72" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D72" s="30" t="s">
+      <c r="C72" s="52" t="s">
+        <v>422</v>
+      </c>
+      <c r="D72">
+        <v>25</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F72" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="E72" s="27" t="s">
+      <c r="G72" s="27" t="s">
         <v>439</v>
       </c>
-      <c r="F72" s="7"/>
-      <c r="H72" s="27" t="s">
+      <c r="H72" s="7"/>
+      <c r="J72" s="27" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>3</v>
       </c>
       <c r="B73" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D73" s="30" t="s">
+      <c r="C73" s="52" t="s">
+        <v>422</v>
+      </c>
+      <c r="D73">
+        <v>25</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F73" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="E73" s="27" t="s">
+      <c r="G73" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="F73" s="7"/>
-      <c r="H73" s="27" t="s">
+      <c r="H73" s="7"/>
+      <c r="J73" s="27" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3</v>
       </c>
       <c r="B74" t="s">
         <v>446</v>
       </c>
-      <c r="C74" t="s">
+      <c r="E74" t="s">
         <v>60</v>
       </c>
-      <c r="D74" s="50" t="s">
+      <c r="F74" s="50" t="s">
         <v>447</v>
       </c>
-      <c r="E74" s="65" t="s">
+      <c r="G74" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="H74" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G74" s="68"/>
-      <c r="H74" t="s">
+      <c r="I74" s="68"/>
+      <c r="J74" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3</v>
       </c>
       <c r="B75" t="s">
         <v>451</v>
       </c>
-      <c r="C75" t="s">
+      <c r="E75" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="50" t="s">
+      <c r="F75" s="50" t="s">
         <v>452</v>
       </c>
-      <c r="E75" s="65" t="s">
+      <c r="G75" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="H75" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G75" s="68"/>
-      <c r="H75" t="s">
+      <c r="I75" s="68"/>
+      <c r="J75" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3</v>
       </c>
       <c r="B76" t="s">
         <v>454</v>
       </c>
-      <c r="C76" t="s">
+      <c r="E76" t="s">
         <v>60</v>
       </c>
-      <c r="D76" s="50" t="s">
+      <c r="F76" s="50" t="s">
         <v>456</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="G76" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="H76" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H76" t="s">
+      <c r="J76" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>3</v>
       </c>
       <c r="B77" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D77" s="29" t="s">
+      <c r="C77" s="52" t="s">
+        <v>446</v>
+      </c>
+      <c r="D77">
+        <v>26</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F77" s="29" t="s">
         <v>458</v>
       </c>
-      <c r="E77" s="27" t="s">
+      <c r="G77" s="27" t="s">
         <v>459</v>
       </c>
-      <c r="F77" s="7"/>
-      <c r="H77" s="27" t="s">
+      <c r="H77" s="7"/>
+      <c r="J77" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>3</v>
       </c>
       <c r="B78" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D78" s="29" t="s">
+      <c r="C78" s="52" t="s">
+        <v>454</v>
+      </c>
+      <c r="D78">
+        <v>28</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="E78" s="27" t="s">
+      <c r="G78" s="27" t="s">
         <v>463</v>
       </c>
-      <c r="F78" s="7"/>
-      <c r="H78" s="27" t="s">
+      <c r="H78" s="7"/>
+      <c r="J78" s="27" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>3</v>
       </c>
       <c r="B79" t="s">
         <v>464</v>
       </c>
-      <c r="C79" t="s">
+      <c r="E79" t="s">
         <v>424</v>
       </c>
-      <c r="D79" s="47" t="s">
+      <c r="F79" s="47" t="s">
         <v>465</v>
       </c>
-      <c r="E79" s="65" t="s">
+      <c r="G79" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="H79" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H79" t="s">
+      <c r="J79" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>3</v>
       </c>
       <c r="B80" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D80" s="29" t="s">
+      <c r="C80" s="52" t="s">
+        <v>446</v>
+      </c>
+      <c r="D80">
+        <v>26</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F80" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="E80" s="27" t="s">
+      <c r="G80" s="27" t="s">
         <v>470</v>
       </c>
-      <c r="F80" s="7"/>
-      <c r="H80" s="27" t="s">
+      <c r="H80" s="7"/>
+      <c r="J80" s="27" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>3</v>
       </c>
       <c r="B81" t="s">
         <v>472</v>
       </c>
-      <c r="C81" t="s">
+      <c r="E81" t="s">
         <v>60</v>
       </c>
-      <c r="D81" s="50" t="s">
+      <c r="F81" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="E81" s="65" t="s">
+      <c r="G81" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="H81" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G81" s="68"/>
-      <c r="H81" t="s">
+      <c r="I81" s="68"/>
+      <c r="J81" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>3</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D82" s="29" t="s">
+      <c r="C82" s="52" t="s">
+        <v>472</v>
+      </c>
+      <c r="D82">
+        <v>30</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F82" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="E82" s="27" t="s">
+      <c r="G82" s="27" t="s">
         <v>477</v>
       </c>
-      <c r="F82" s="7"/>
-      <c r="G82" s="27" t="s">
+      <c r="H82" s="7"/>
+      <c r="I82" s="27" t="s">
         <v>479</v>
       </c>
-      <c r="H82" s="9" t="s">
+      <c r="J82" s="9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>3</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D83" s="29" t="s">
+      <c r="C83" s="52" t="s">
+        <v>472</v>
+      </c>
+      <c r="D83">
+        <v>30</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F83" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="E83" s="27" t="s">
+      <c r="G83" s="27" t="s">
         <v>482</v>
       </c>
-      <c r="F83" s="7"/>
-      <c r="H83" s="9" t="s">
+      <c r="H83" s="7"/>
+      <c r="J83" s="9" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>3</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D84" s="29" t="s">
+      <c r="C84" s="52" t="s">
+        <v>472</v>
+      </c>
+      <c r="D84">
+        <v>30</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F84" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="E84" s="27" t="s">
+      <c r="G84" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="F84" s="7"/>
-      <c r="H84" s="9" t="s">
+      <c r="H84" s="7"/>
+      <c r="J84" s="9" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="52">
         <v>3</v>
       </c>
       <c r="B85" s="52" t="s">
         <v>486</v>
       </c>
-      <c r="C85" s="52" t="s">
+      <c r="E85" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D85" s="50" t="s">
+      <c r="F85" s="50" t="s">
         <v>487</v>
       </c>
-      <c r="E85" s="65" t="s">
+      <c r="G85" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="H85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G85" s="52"/>
-      <c r="H85" s="52" t="s">
+      <c r="I85" s="52"/>
+      <c r="J85" s="52" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>3</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D86" s="29" t="s">
+      <c r="C86" s="52" t="s">
+        <v>677</v>
+      </c>
+      <c r="D86" t="s">
+        <v>676</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F86" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="E86" s="27" t="s">
+      <c r="G86" s="27" t="s">
         <v>459</v>
       </c>
-      <c r="F86" s="7"/>
-      <c r="H86" s="9" t="s">
+      <c r="H86" s="7"/>
+      <c r="J86" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="52">
         <v>3</v>
       </c>
       <c r="B87" s="52" t="s">
         <v>489</v>
       </c>
-      <c r="C87" s="52" t="s">
+      <c r="E87" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D87" s="50" t="s">
+      <c r="F87" s="50" t="s">
         <v>490</v>
       </c>
-      <c r="E87" s="18" t="s">
+      <c r="G87" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="H87" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G87" s="52"/>
-      <c r="H87" s="52" t="s">
+      <c r="I87" s="52"/>
+      <c r="J87" s="52" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>3</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D88" s="29" t="s">
+      <c r="C88" s="52" t="s">
+        <v>489</v>
+      </c>
+      <c r="D88">
+        <v>32</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F88" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="E88" s="27" t="s">
+      <c r="G88" s="27" t="s">
         <v>495</v>
       </c>
-      <c r="F88" s="7"/>
-      <c r="H88" s="9" t="s">
+      <c r="H88" s="7"/>
+      <c r="J88" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="52">
         <v>3</v>
       </c>
       <c r="B89" s="52" t="s">
         <v>497</v>
       </c>
-      <c r="C89" s="52" t="s">
+      <c r="E89" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D89" s="50" t="s">
+      <c r="F89" s="50" t="s">
         <v>498</v>
       </c>
-      <c r="E89" s="65" t="s">
+      <c r="G89" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="H89" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G89" s="68"/>
-      <c r="H89" s="52" t="s">
+      <c r="I89" s="68"/>
+      <c r="J89" s="52" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>3</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D90" s="29" t="s">
+      <c r="C90" s="52" t="s">
+        <v>497</v>
+      </c>
+      <c r="D90">
+        <v>33</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F90" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="E90" s="27" t="s">
+      <c r="G90" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="F90" s="7"/>
-      <c r="H90" s="9" t="s">
+      <c r="H90" s="7"/>
+      <c r="J90" s="9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>3</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D91" s="29" t="s">
+      <c r="C91" s="52" t="s">
+        <v>497</v>
+      </c>
+      <c r="D91">
+        <v>33</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F91" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="E91" s="27" t="s">
+      <c r="G91" s="27" t="s">
         <v>504</v>
       </c>
-      <c r="F91" s="7"/>
-      <c r="H91" s="9" t="s">
+      <c r="H91" s="7"/>
+      <c r="J91" s="9" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="52">
         <v>3</v>
       </c>
       <c r="B92" s="52" t="s">
         <v>505</v>
       </c>
-      <c r="C92" s="52" t="s">
+      <c r="E92" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D92" s="50" t="s">
+      <c r="F92" s="50" t="s">
         <v>507</v>
       </c>
-      <c r="E92" s="18" t="s">
+      <c r="G92" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="H92" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G92" s="52"/>
-      <c r="H92" s="52" t="s">
+      <c r="I92" s="52"/>
+      <c r="J92" s="52" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>3</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D93" s="29" t="s">
+      <c r="C93" s="52" t="s">
+        <v>505</v>
+      </c>
+      <c r="D93">
+        <v>34</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F93" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="E93" s="27" t="s">
+      <c r="G93" s="27" t="s">
         <v>510</v>
       </c>
-      <c r="F93" s="7"/>
-      <c r="G93" s="52"/>
-      <c r="H93" s="9" t="s">
+      <c r="H93" s="7"/>
+      <c r="I93" s="52"/>
+      <c r="J93" s="9" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>3</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D94" s="29" t="s">
+      <c r="C94" s="52" t="s">
+        <v>505</v>
+      </c>
+      <c r="D94">
+        <v>34</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F94" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="E94" s="27" t="s">
+      <c r="G94" s="27" t="s">
         <v>512</v>
       </c>
-      <c r="F94" s="7"/>
-      <c r="H94" s="9" t="s">
+      <c r="H94" s="7"/>
+      <c r="J94" s="9" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>3</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D95" s="29" t="s">
+      <c r="C95" s="52" t="s">
+        <v>505</v>
+      </c>
+      <c r="D95">
+        <v>34</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F95" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="E95" s="27" t="s">
+      <c r="G95" s="27" t="s">
         <v>517</v>
       </c>
-      <c r="F95" s="7"/>
-      <c r="H95" s="9" t="s">
+      <c r="H95" s="7"/>
+      <c r="J95" s="9" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="52">
         <v>3</v>
       </c>
       <c r="B96" s="52" t="s">
         <v>518</v>
       </c>
-      <c r="C96" s="52" t="s">
+      <c r="E96" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D96" s="50" t="s">
+      <c r="F96" s="50" t="s">
         <v>520</v>
       </c>
-      <c r="E96" s="18" t="s">
+      <c r="G96" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="H96" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G96" s="52"/>
-      <c r="H96" s="52" t="s">
+      <c r="I96" s="52"/>
+      <c r="J96" s="52" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="52">
         <v>3</v>
       </c>
       <c r="B97" s="52" t="s">
         <v>521</v>
       </c>
-      <c r="C97" s="52" t="s">
+      <c r="E97" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D97" s="50" t="s">
+      <c r="F97" s="50" t="s">
         <v>523</v>
       </c>
-      <c r="E97" s="18" t="s">
+      <c r="G97" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="H97" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G97" s="52"/>
-      <c r="H97" s="52" t="s">
+      <c r="I97" s="52"/>
+      <c r="J97" s="52" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>4</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D98" s="54" t="s">
+      <c r="E98" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F98" s="54" t="s">
         <v>526</v>
       </c>
-      <c r="E98" s="27" t="s">
+      <c r="G98" s="27" t="s">
         <v>459</v>
       </c>
-      <c r="F98" s="7"/>
-      <c r="G98" s="52"/>
-      <c r="H98" s="9" t="s">
+      <c r="H98" s="7"/>
+      <c r="I98" s="52"/>
+      <c r="J98" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="52">
         <v>4</v>
       </c>
       <c r="B99" s="52" t="s">
         <v>527</v>
       </c>
-      <c r="C99" s="52" t="s">
+      <c r="E99" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D99" s="53" t="s">
+      <c r="F99" s="53" t="s">
         <v>528</v>
       </c>
-      <c r="E99" s="18" t="s">
+      <c r="G99" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="H99" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H99" s="52" t="s">
+      <c r="J99" s="52" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>4</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D100" s="54" t="s">
+      <c r="E100" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F100" s="54" t="s">
         <v>531</v>
       </c>
-      <c r="E100" s="27" t="s">
+      <c r="G100" s="27" t="s">
         <v>459</v>
       </c>
-      <c r="F100" s="7"/>
-      <c r="G100" s="52"/>
-      <c r="H100" s="9" t="s">
+      <c r="H100" s="7"/>
+      <c r="I100" s="52"/>
+      <c r="J100" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="52">
         <v>4</v>
       </c>
       <c r="B101" s="52" t="s">
         <v>533</v>
       </c>
-      <c r="C101" s="52" t="s">
+      <c r="E101" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D101" s="53" t="s">
+      <c r="F101" s="53" t="s">
         <v>535</v>
       </c>
-      <c r="E101" s="18" t="s">
+      <c r="G101" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="H101" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="52" t="s">
+      <c r="I101" s="52"/>
+      <c r="J101" s="52" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>4</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D102" s="54" t="s">
+      <c r="E102" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F102" s="54" t="s">
         <v>537</v>
       </c>
-      <c r="E102" s="55" t="s">
+      <c r="G102" s="55" t="s">
         <v>539</v>
       </c>
-      <c r="F102" s="7"/>
-      <c r="H102" s="9" t="s">
+      <c r="H102" s="7"/>
+      <c r="J102" s="9" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>4</v>
       </c>
       <c r="B103" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D103" s="54" t="s">
+      <c r="E103" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F103" s="54" t="s">
         <v>540</v>
       </c>
-      <c r="E103" s="55" t="s">
+      <c r="G103" s="55" t="s">
         <v>543</v>
       </c>
-      <c r="F103" s="7"/>
-      <c r="H103" s="27" t="s">
+      <c r="H103" s="7"/>
+      <c r="J103" s="27" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>4</v>
       </c>
       <c r="B104" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D104" s="54" t="s">
+      <c r="E104" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F104" s="54" t="s">
         <v>545</v>
       </c>
-      <c r="E104" s="55" t="s">
+      <c r="G104" s="55" t="s">
         <v>547</v>
       </c>
-      <c r="F104" s="7"/>
-      <c r="H104" s="27" t="s">
+      <c r="H104" s="7"/>
+      <c r="J104" s="27" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>4</v>
       </c>
       <c r="B105" s="52" t="s">
         <v>548</v>
       </c>
-      <c r="C105" t="s">
+      <c r="E105" t="s">
         <v>60</v>
       </c>
-      <c r="D105" s="53" t="s">
+      <c r="F105" s="53" t="s">
         <v>550</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="G105" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="H105" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H105" s="52" t="s">
+      <c r="J105" s="52" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>4</v>
       </c>
       <c r="B106" s="52" t="s">
         <v>551</v>
       </c>
-      <c r="C106" t="s">
+      <c r="E106" t="s">
         <v>60</v>
       </c>
-      <c r="D106" s="53" t="s">
+      <c r="F106" s="53" t="s">
         <v>552</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="G106" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="H106" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H106" s="52" t="s">
+      <c r="J106" s="52" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>4</v>
       </c>
       <c r="B107" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D107" s="54" t="s">
+      <c r="E107" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F107" s="54" t="s">
         <v>554</v>
       </c>
-      <c r="E107" s="55" t="s">
+      <c r="G107" s="55" t="s">
         <v>539</v>
       </c>
-      <c r="F107" s="7"/>
-      <c r="H107" s="27" t="s">
+      <c r="H107" s="7"/>
+      <c r="J107" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>4</v>
       </c>
       <c r="B108" s="52" t="s">
         <v>556</v>
       </c>
-      <c r="C108" t="s">
+      <c r="E108" t="s">
         <v>60</v>
       </c>
-      <c r="D108" s="53" t="s">
+      <c r="F108" s="53" t="s">
         <v>557</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="G108" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="H108" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H108" s="52" t="s">
+      <c r="J108" s="52" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>4</v>
       </c>
       <c r="B109" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D109" s="30" t="s">
+      <c r="E109" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F109" s="30" t="s">
         <v>559</v>
       </c>
-      <c r="E109" s="55" t="s">
+      <c r="G109" s="55" t="s">
         <v>543</v>
       </c>
-      <c r="F109" s="7"/>
-      <c r="H109" s="27" t="s">
+      <c r="H109" s="7"/>
+      <c r="J109" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>4</v>
       </c>
       <c r="B110" s="52" t="s">
         <v>561</v>
       </c>
-      <c r="C110" t="s">
+      <c r="E110" t="s">
         <v>60</v>
       </c>
-      <c r="D110" s="53" t="s">
+      <c r="F110" s="53" t="s">
         <v>563</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="G110" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="H110" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H110" s="52" t="s">
+      <c r="J110" s="52" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>4</v>
       </c>
       <c r="B111" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D111" s="54" t="s">
+      <c r="E111" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F111" s="54" t="s">
         <v>565</v>
       </c>
-      <c r="E111" s="55" t="s">
+      <c r="G111" s="55" t="s">
         <v>547</v>
       </c>
-      <c r="F111" s="7"/>
-      <c r="H111" s="27" t="s">
+      <c r="H111" s="7"/>
+      <c r="J111" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>4</v>
       </c>
       <c r="B112" s="52" t="s">
         <v>566</v>
       </c>
-      <c r="C112" t="s">
+      <c r="E112" t="s">
         <v>60</v>
       </c>
-      <c r="D112" s="53" t="s">
+      <c r="F112" s="53" t="s">
         <v>568</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="G112" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="H112" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H112" s="52" t="s">
+      <c r="J112" s="52" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>4</v>
       </c>
       <c r="B113" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D113" s="54" t="s">
+      <c r="E113" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F113" s="54" t="s">
         <v>569</v>
       </c>
-      <c r="E113" s="27" t="s">
+      <c r="G113" s="27" t="s">
         <v>459</v>
       </c>
-      <c r="F113" s="7"/>
-      <c r="H113" s="27" t="s">
+      <c r="H113" s="7"/>
+      <c r="J113" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>4</v>
       </c>
       <c r="B114" s="52" t="s">
         <v>571</v>
       </c>
-      <c r="C114" t="s">
+      <c r="E114" t="s">
         <v>60</v>
       </c>
-      <c r="D114" s="53" t="s">
+      <c r="F114" s="53" t="s">
         <v>572</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="G114" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="H114" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H114" s="52" t="s">
+      <c r="J114" s="52" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>4</v>
       </c>
       <c r="B115" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D115" s="54" t="s">
+      <c r="E115" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F115" s="54" t="s">
         <v>570</v>
       </c>
-      <c r="E115" s="66" t="s">
+      <c r="G115" s="66" t="s">
         <v>574</v>
       </c>
-      <c r="F115" s="7"/>
-      <c r="H115" s="27" t="s">
+      <c r="H115" s="7"/>
+      <c r="J115" s="27" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>4</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D116" s="54" t="s">
+      <c r="E116" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F116" s="54" t="s">
         <v>576</v>
       </c>
-      <c r="E116" s="66" t="s">
+      <c r="G116" s="66" t="s">
         <v>577</v>
       </c>
-      <c r="F116" s="7"/>
-      <c r="H116" s="9" t="s">
+      <c r="H116" s="7"/>
+      <c r="J116" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>4</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D117" s="54" t="s">
+      <c r="E117" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F117" s="54" t="s">
         <v>578</v>
       </c>
-      <c r="E117" s="55" t="s">
+      <c r="G117" s="55" t="s">
         <v>583</v>
       </c>
-      <c r="F117" s="7"/>
-      <c r="H117" s="9" t="s">
+      <c r="H117" s="7"/>
+      <c r="J117" s="9" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="52">
         <v>4</v>
       </c>
       <c r="B118" s="52" t="s">
         <v>585</v>
       </c>
-      <c r="C118" s="52" t="s">
+      <c r="E118" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D118" s="53" t="s">
+      <c r="F118" s="53" t="s">
         <v>586</v>
       </c>
-      <c r="E118" s="18" t="s">
+      <c r="G118" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="H118" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H118" s="52" t="s">
+      <c r="J118" s="52" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>4</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D119" s="54" t="s">
+      <c r="E119" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F119" s="54" t="s">
         <v>591</v>
       </c>
-      <c r="E119" s="55" t="s">
+      <c r="G119" s="55" t="s">
         <v>574</v>
       </c>
-      <c r="F119" s="7"/>
-      <c r="H119" s="9" t="s">
+      <c r="H119" s="7"/>
+      <c r="J119" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="52">
         <v>4</v>
       </c>
       <c r="B120" s="52" t="s">
         <v>595</v>
       </c>
-      <c r="C120" s="52" t="s">
+      <c r="E120" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D120" s="53" t="s">
+      <c r="F120" s="53" t="s">
         <v>597</v>
       </c>
-      <c r="E120" s="18" t="s">
+      <c r="G120" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F120" s="7" t="s">
+      <c r="H120" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H120" s="52" t="s">
+      <c r="J120" s="52" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>4</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D121" s="54" t="s">
+      <c r="E121" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F121" s="54" t="s">
         <v>601</v>
       </c>
-      <c r="E121" s="55" t="s">
+      <c r="G121" s="55" t="s">
         <v>577</v>
       </c>
-      <c r="F121" s="7"/>
-      <c r="H121" s="9" t="s">
+      <c r="H121" s="7"/>
+      <c r="J121" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="52">
         <v>4</v>
       </c>
       <c r="B122" s="52" t="s">
         <v>603</v>
       </c>
-      <c r="C122" s="52" t="s">
+      <c r="E122" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D122" s="53" t="s">
+      <c r="F122" s="53" t="s">
         <v>605</v>
       </c>
-      <c r="E122" s="18" t="s">
+      <c r="G122" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F122" s="7" t="s">
+      <c r="H122" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H122" s="52" t="s">
+      <c r="J122" s="52" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>4</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D123" s="54" t="s">
+      <c r="E123" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F123" s="54" t="s">
         <v>607</v>
       </c>
-      <c r="E123" s="55" t="s">
+      <c r="G123" s="55" t="s">
         <v>583</v>
       </c>
-      <c r="F123" s="7"/>
-      <c r="H123" s="9" t="s">
+      <c r="H123" s="7"/>
+      <c r="J123" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="52">
         <v>4</v>
       </c>
       <c r="B124" s="52" t="s">
         <v>609</v>
       </c>
-      <c r="C124" s="52" t="s">
+      <c r="E124" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D124" s="53" t="s">
+      <c r="F124" s="53" t="s">
         <v>611</v>
       </c>
-      <c r="E124" s="18" t="s">
+      <c r="G124" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F124" s="7" t="s">
+      <c r="H124" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H124" s="52" t="s">
+      <c r="J124" s="52" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>4</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D125" s="54" t="s">
+      <c r="E125" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F125" s="54" t="s">
         <v>582</v>
       </c>
-      <c r="E125" s="66" t="s">
+      <c r="G125" s="66" t="s">
         <v>614</v>
       </c>
-      <c r="F125" s="7"/>
-      <c r="G125" s="68"/>
-      <c r="H125" s="9" t="s">
+      <c r="H125" s="7"/>
+      <c r="I125" s="68"/>
+      <c r="J125" s="9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>4</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D126" s="54" t="s">
+      <c r="E126" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F126" s="54" t="s">
         <v>589</v>
       </c>
-      <c r="E126" s="66" t="s">
+      <c r="G126" s="66" t="s">
         <v>616</v>
       </c>
-      <c r="F126" s="7"/>
-      <c r="H126" s="9" t="s">
+      <c r="H126" s="7"/>
+      <c r="J126" s="9" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>4</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D127" s="54" t="s">
+      <c r="E127" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F127" s="54" t="s">
         <v>593</v>
       </c>
-      <c r="E127" s="66" t="s">
+      <c r="G127" s="66" t="s">
         <v>618</v>
       </c>
-      <c r="F127" s="7"/>
-      <c r="G127" s="68"/>
-      <c r="H127" s="9" t="s">
+      <c r="H127" s="7"/>
+      <c r="I127" s="68"/>
+      <c r="J127" s="9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D128" s="18"/>
     </row>
     <row r="129" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8248,7 +8614,6 @@
       <c r="D999" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H999" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -8256,13 +8621,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1002" sqref="B1002"/>
     </sheetView>
   </sheetViews>
@@ -8297,7 +8662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -8308,7 +8673,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="31">
         <v>1</v>
       </c>
@@ -8329,7 +8694,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -8338,7 +8703,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -8347,7 +8712,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -8356,7 +8721,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="31">
         <v>1</v>
       </c>
@@ -8377,7 +8742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>1</v>
       </c>
@@ -8398,7 +8763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -8407,7 +8772,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -8416,7 +8781,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -8425,7 +8790,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="31">
         <v>1</v>
       </c>
@@ -8446,7 +8811,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="31">
         <v>1</v>
       </c>
@@ -8467,7 +8832,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>1</v>
       </c>
@@ -8488,7 +8853,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -8497,7 +8862,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -8506,7 +8871,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -8515,7 +8880,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="31">
         <v>1</v>
       </c>
@@ -8536,7 +8901,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -8545,7 +8910,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <v>1</v>
       </c>
@@ -8566,7 +8931,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -8575,7 +8940,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="21">
         <v>1</v>
       </c>
@@ -8596,7 +8961,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>2</v>
       </c>
@@ -8613,7 +8978,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <v>1</v>
       </c>
@@ -8634,7 +8999,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <v>1</v>
       </c>
@@ -8655,7 +9020,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
         <v>1</v>
       </c>
@@ -8676,7 +9041,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>2</v>
       </c>
@@ -8693,7 +9058,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>2</v>
       </c>
@@ -8710,7 +9075,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>2</v>
       </c>
@@ -8727,7 +9092,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="21">
         <v>1</v>
       </c>
@@ -8748,7 +9113,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>1</v>
       </c>
@@ -8767,7 +9132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>1</v>
       </c>
@@ -8786,7 +9151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>1</v>
       </c>
@@ -8805,7 +9170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>2</v>
       </c>
@@ -8822,7 +9187,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>1</v>
       </c>
@@ -8841,7 +9206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
         <v>1</v>
       </c>
@@ -8860,7 +9225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <v>1</v>
       </c>
@@ -8879,7 +9244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>2</v>
       </c>
@@ -8896,7 +9261,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>2</v>
       </c>
@@ -8913,7 +9278,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
         <v>1</v>
       </c>
@@ -8932,7 +9297,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <v>1</v>
       </c>
@@ -8951,7 +9316,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -8960,7 +9325,7 @@
       <c r="F42" s="15"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -8969,7 +9334,7 @@
       <c r="F43" s="15"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>2</v>
       </c>
@@ -8986,7 +9351,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -8995,7 +9360,7 @@
       <c r="F45" s="15"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -9004,7 +9369,7 @@
       <c r="F46" s="15"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -9013,7 +9378,7 @@
       <c r="F47" s="15"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>3</v>
       </c>
@@ -9030,7 +9395,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -9039,7 +9404,7 @@
       <c r="F49" s="15"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>3</v>
       </c>
@@ -9056,7 +9421,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>3</v>
       </c>
@@ -9073,7 +9438,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -9082,7 +9447,7 @@
       <c r="F52" s="15"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -9091,7 +9456,7 @@
       <c r="F53" s="15"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -9100,7 +9465,7 @@
       <c r="F54" s="15"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>3</v>
       </c>
@@ -9117,7 +9482,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -9126,7 +9491,7 @@
       <c r="F56" s="15"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>3</v>
       </c>
@@ -9143,7 +9508,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -9152,7 +9517,7 @@
       <c r="F58" s="15"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -9161,7 +9526,7 @@
       <c r="F59" s="15"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>3</v>
       </c>
@@ -9178,7 +9543,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -9187,7 +9552,7 @@
       <c r="F61" s="15"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -9196,7 +9561,7 @@
       <c r="F62" s="15"/>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -9205,7 +9570,7 @@
       <c r="F63" s="15"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -9214,7 +9579,7 @@
       <c r="F64" s="15"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>3</v>
       </c>
@@ -9231,7 +9596,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>3</v>
       </c>
@@ -9248,7 +9613,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -9257,7 +9622,7 @@
       <c r="F67" s="15"/>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -9266,7 +9631,7 @@
       <c r="F68" s="15"/>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="27">
         <v>2</v>
       </c>
@@ -9287,7 +9652,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="27">
         <v>2</v>
       </c>
@@ -9308,7 +9673,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="27">
         <v>2</v>
       </c>
@@ -9329,7 +9694,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="27">
         <v>2</v>
       </c>
@@ -9350,7 +9715,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>3</v>
       </c>
@@ -9367,7 +9732,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>3</v>
       </c>
@@ -9384,7 +9749,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="27">
         <v>2</v>
       </c>
@@ -9405,7 +9770,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="27">
         <v>2</v>
       </c>
@@ -9426,7 +9791,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A77" s="27">
         <v>2</v>
       </c>
@@ -9449,7 +9814,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="27">
         <v>2</v>
       </c>
@@ -9489,7 +9854,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A80" s="27">
         <v>2</v>
       </c>
@@ -9529,7 +9894,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="27">
         <v>2</v>
       </c>
@@ -9550,7 +9915,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="27">
         <v>2</v>
       </c>
@@ -9571,7 +9936,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="27">
         <v>2</v>
       </c>
@@ -9592,7 +9957,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="27">
         <v>2</v>
       </c>
@@ -9683,7 +10048,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="27">
         <v>2</v>
       </c>
@@ -9704,7 +10069,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A91" s="27">
         <v>2</v>
       </c>
@@ -9727,7 +10092,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="27">
         <v>2</v>
       </c>
@@ -9816,7 +10181,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="27">
         <v>2</v>
       </c>
@@ -9837,7 +10202,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <v>3</v>
       </c>
@@ -9858,7 +10223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>3</v>
       </c>
@@ -9879,7 +10244,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <v>3</v>
       </c>
@@ -9919,7 +10284,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <v>3</v>
       </c>
@@ -9959,7 +10324,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
         <v>3</v>
       </c>
@@ -9980,7 +10345,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
         <v>3</v>
       </c>
@@ -10001,7 +10366,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
         <v>3</v>
       </c>
@@ -10022,7 +10387,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
         <v>3</v>
       </c>
@@ -10111,7 +10476,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
         <v>3</v>
       </c>
@@ -10134,7 +10499,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>3</v>
       </c>
@@ -10155,7 +10520,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
         <v>3</v>
       </c>
@@ -10195,7 +10560,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
         <v>3</v>
       </c>
@@ -10233,7 +10598,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
         <v>3</v>
       </c>
@@ -10256,7 +10621,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <v>3</v>
       </c>
@@ -10277,7 +10642,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
         <v>3</v>
       </c>
@@ -10298,7 +10663,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <v>3</v>
       </c>
@@ -10389,7 +10754,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A126" s="7">
         <v>3</v>
       </c>
@@ -10412,7 +10777,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
         <v>3</v>
       </c>
@@ -10435,7 +10800,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A128" s="7">
         <v>3</v>
       </c>
@@ -10458,7 +10823,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129" s="7">
         <v>3</v>
       </c>
@@ -10494,7 +10859,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="27">
         <v>3</v>
       </c>
@@ -10532,7 +10897,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="27">
         <v>3</v>
       </c>
@@ -10553,7 +10918,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="27">
         <v>3</v>
       </c>
@@ -10576,7 +10941,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" s="27">
         <v>3</v>
       </c>
@@ -10599,7 +10964,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="27">
         <v>3</v>
       </c>
@@ -10688,7 +11053,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="27">
         <v>3</v>
       </c>
@@ -10709,7 +11074,7 @@
         <v>43169</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" s="27">
         <v>3</v>
       </c>
@@ -10730,7 +11095,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A143" s="27">
         <v>3</v>
       </c>
@@ -10751,7 +11116,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="27">
         <v>3</v>
       </c>
@@ -10791,7 +11156,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="27">
         <v>3</v>
       </c>
@@ -10812,7 +11177,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A147" s="27">
         <v>3</v>
       </c>
@@ -10835,7 +11200,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="27">
         <v>3</v>
       </c>
@@ -10856,7 +11221,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A149" s="27">
         <v>3</v>
       </c>
@@ -10879,7 +11244,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" s="27">
         <v>3</v>
       </c>
@@ -10900,7 +11265,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="27">
         <v>3</v>
       </c>
@@ -10921,7 +11286,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A152" s="27">
         <v>3</v>
       </c>
@@ -10944,7 +11309,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A153" s="27">
         <v>3</v>
       </c>
@@ -10967,7 +11332,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A154" s="27">
         <v>3</v>
       </c>
@@ -10990,7 +11355,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A155" s="27">
         <v>3</v>
       </c>
@@ -11916,7 +12281,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -11924,7 +12289,7 @@
       <c r="E199" s="1"/>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -11932,7 +12297,7 @@
       <c r="E200" s="1"/>
       <c r="G200" s="1"/>
     </row>
-    <row r="201" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -11940,7 +12305,7 @@
       <c r="E201" s="1"/>
       <c r="G201" s="1"/>
     </row>
-    <row r="202" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -11948,7 +12313,7 @@
       <c r="E202" s="1"/>
       <c r="G202" s="1"/>
     </row>
-    <row r="203" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -11956,7 +12321,7 @@
       <c r="E203" s="1"/>
       <c r="G203" s="1"/>
     </row>
-    <row r="204" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -11964,7 +12329,7 @@
       <c r="E204" s="1"/>
       <c r="G204" s="1"/>
     </row>
-    <row r="205" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -11972,7 +12337,7 @@
       <c r="E205" s="1"/>
       <c r="G205" s="1"/>
     </row>
-    <row r="206" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -11980,7 +12345,7 @@
       <c r="E206" s="1"/>
       <c r="G206" s="1"/>
     </row>
-    <row r="207" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -11988,7 +12353,7 @@
       <c r="E207" s="1"/>
       <c r="G207" s="1"/>
     </row>
-    <row r="208" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -11996,7 +12361,7 @@
       <c r="E208" s="1"/>
       <c r="G208" s="1"/>
     </row>
-    <row r="209" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -12004,7 +12369,7 @@
       <c r="E209" s="1"/>
       <c r="G209" s="1"/>
     </row>
-    <row r="210" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -12012,7 +12377,7 @@
       <c r="E210" s="1"/>
       <c r="G210" s="1"/>
     </row>
-    <row r="211" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -12020,7 +12385,7 @@
       <c r="E211" s="1"/>
       <c r="G211" s="1"/>
     </row>
-    <row r="212" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -12028,7 +12393,7 @@
       <c r="E212" s="1"/>
       <c r="G212" s="1"/>
     </row>
-    <row r="213" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -12036,7 +12401,7 @@
       <c r="E213" s="1"/>
       <c r="G213" s="1"/>
     </row>
-    <row r="214" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -12044,7 +12409,7 @@
       <c r="E214" s="1"/>
       <c r="G214" s="1"/>
     </row>
-    <row r="215" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -12052,2379 +12417,2369 @@
       <c r="E215" s="1"/>
       <c r="G215" s="1"/>
     </row>
-    <row r="216" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D216" s="15"/>
     </row>
-    <row r="217" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D217" s="15"/>
     </row>
-    <row r="218" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D218" s="15"/>
     </row>
-    <row r="219" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D219" s="15"/>
     </row>
-    <row r="220" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D220" s="15"/>
     </row>
-    <row r="221" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D221" s="15"/>
     </row>
-    <row r="222" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D222" s="15"/>
     </row>
-    <row r="223" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D223" s="15"/>
     </row>
-    <row r="224" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D224" s="15"/>
     </row>
-    <row r="225" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D225" s="15"/>
     </row>
-    <row r="226" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D226" s="15"/>
     </row>
-    <row r="227" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D227" s="15"/>
     </row>
-    <row r="228" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D228" s="15"/>
     </row>
-    <row r="229" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D229" s="15"/>
     </row>
-    <row r="230" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D230" s="15"/>
     </row>
-    <row r="231" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D231" s="15"/>
     </row>
-    <row r="232" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D232" s="15"/>
     </row>
-    <row r="233" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D233" s="15"/>
     </row>
-    <row r="234" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D234" s="15"/>
     </row>
-    <row r="235" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D235" s="15"/>
     </row>
-    <row r="236" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D236" s="15"/>
     </row>
-    <row r="237" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D237" s="15"/>
     </row>
-    <row r="238" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D238" s="15"/>
     </row>
-    <row r="239" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D239" s="15"/>
     </row>
-    <row r="240" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D240" s="15"/>
     </row>
-    <row r="241" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D241" s="15"/>
     </row>
-    <row r="242" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D242" s="15"/>
     </row>
-    <row r="243" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D243" s="15"/>
     </row>
-    <row r="244" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D244" s="15"/>
     </row>
-    <row r="245" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D245" s="15"/>
     </row>
-    <row r="246" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D246" s="15"/>
     </row>
-    <row r="247" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D247" s="15"/>
     </row>
-    <row r="248" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D248" s="15"/>
     </row>
-    <row r="249" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D249" s="15"/>
     </row>
-    <row r="250" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D250" s="15"/>
     </row>
-    <row r="251" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D251" s="15"/>
     </row>
-    <row r="252" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D252" s="15"/>
     </row>
-    <row r="253" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D253" s="15"/>
     </row>
-    <row r="254" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D254" s="15"/>
     </row>
-    <row r="255" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D255" s="15"/>
     </row>
-    <row r="256" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D256" s="15"/>
     </row>
-    <row r="257" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D257" s="15"/>
     </row>
-    <row r="258" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D258" s="15"/>
     </row>
-    <row r="259" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D259" s="15"/>
     </row>
-    <row r="260" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D260" s="15"/>
     </row>
-    <row r="261" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D261" s="15"/>
     </row>
-    <row r="262" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D262" s="15"/>
     </row>
-    <row r="263" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D263" s="15"/>
     </row>
-    <row r="264" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D264" s="15"/>
     </row>
-    <row r="265" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D265" s="15"/>
     </row>
-    <row r="266" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D266" s="15"/>
     </row>
-    <row r="267" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D267" s="15"/>
     </row>
-    <row r="268" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D268" s="15"/>
     </row>
-    <row r="269" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D269" s="15"/>
     </row>
-    <row r="270" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D270" s="15"/>
     </row>
-    <row r="271" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D271" s="15"/>
     </row>
-    <row r="272" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D272" s="15"/>
     </row>
-    <row r="273" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D273" s="15"/>
     </row>
-    <row r="274" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D274" s="15"/>
     </row>
-    <row r="275" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D275" s="15"/>
     </row>
-    <row r="276" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D276" s="15"/>
     </row>
-    <row r="277" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D277" s="15"/>
     </row>
-    <row r="278" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D278" s="15"/>
     </row>
-    <row r="279" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D279" s="15"/>
     </row>
-    <row r="280" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D280" s="15"/>
     </row>
-    <row r="281" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D281" s="15"/>
     </row>
-    <row r="282" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D282" s="15"/>
     </row>
-    <row r="283" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D283" s="15"/>
     </row>
-    <row r="284" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D284" s="15"/>
     </row>
-    <row r="285" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D285" s="15"/>
     </row>
-    <row r="286" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D286" s="15"/>
     </row>
-    <row r="287" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D287" s="15"/>
     </row>
-    <row r="288" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D288" s="15"/>
     </row>
-    <row r="289" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D289" s="15"/>
     </row>
-    <row r="290" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D290" s="15"/>
     </row>
-    <row r="291" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D291" s="15"/>
     </row>
-    <row r="292" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D292" s="15"/>
     </row>
-    <row r="293" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D293" s="15"/>
     </row>
-    <row r="294" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D294" s="15"/>
     </row>
-    <row r="295" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D295" s="15"/>
     </row>
-    <row r="296" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D296" s="15"/>
     </row>
-    <row r="297" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D297" s="15"/>
     </row>
-    <row r="298" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D298" s="15"/>
     </row>
-    <row r="299" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D299" s="15"/>
     </row>
-    <row r="300" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D300" s="15"/>
     </row>
-    <row r="301" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D301" s="15"/>
     </row>
-    <row r="302" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D302" s="15"/>
     </row>
-    <row r="303" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D303" s="15"/>
     </row>
-    <row r="304" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D304" s="15"/>
     </row>
-    <row r="305" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D305" s="15"/>
     </row>
-    <row r="306" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D306" s="15"/>
     </row>
-    <row r="307" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D307" s="15"/>
     </row>
-    <row r="308" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D308" s="15"/>
     </row>
-    <row r="309" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D309" s="15"/>
     </row>
-    <row r="310" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D310" s="15"/>
     </row>
-    <row r="311" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D311" s="15"/>
     </row>
-    <row r="312" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D312" s="15"/>
     </row>
-    <row r="313" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D313" s="15"/>
     </row>
-    <row r="314" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D314" s="15"/>
     </row>
-    <row r="315" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D315" s="15"/>
     </row>
-    <row r="316" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D316" s="15"/>
     </row>
-    <row r="317" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D317" s="15"/>
     </row>
-    <row r="318" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D318" s="15"/>
     </row>
-    <row r="319" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D319" s="15"/>
     </row>
-    <row r="320" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D320" s="15"/>
     </row>
-    <row r="321" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D321" s="15"/>
     </row>
-    <row r="322" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D322" s="15"/>
     </row>
-    <row r="323" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D323" s="15"/>
     </row>
-    <row r="324" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D324" s="15"/>
     </row>
-    <row r="325" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D325" s="15"/>
     </row>
-    <row r="326" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D326" s="15"/>
     </row>
-    <row r="327" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D327" s="15"/>
     </row>
-    <row r="328" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D328" s="15"/>
     </row>
-    <row r="329" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D329" s="15"/>
     </row>
-    <row r="330" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D330" s="15"/>
     </row>
-    <row r="331" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D331" s="15"/>
     </row>
-    <row r="332" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D332" s="15"/>
     </row>
-    <row r="333" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D333" s="15"/>
     </row>
-    <row r="334" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D334" s="15"/>
     </row>
-    <row r="335" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D335" s="15"/>
     </row>
-    <row r="336" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D336" s="15"/>
     </row>
-    <row r="337" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D337" s="15"/>
     </row>
-    <row r="338" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D338" s="15"/>
     </row>
-    <row r="339" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D339" s="15"/>
     </row>
-    <row r="340" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D340" s="15"/>
     </row>
-    <row r="341" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D341" s="15"/>
     </row>
-    <row r="342" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D342" s="15"/>
     </row>
-    <row r="343" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D343" s="15"/>
     </row>
-    <row r="344" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D344" s="15"/>
     </row>
-    <row r="345" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D345" s="15"/>
     </row>
-    <row r="346" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D346" s="15"/>
     </row>
-    <row r="347" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D347" s="15"/>
     </row>
-    <row r="348" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D348" s="15"/>
     </row>
-    <row r="349" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D349" s="15"/>
     </row>
-    <row r="350" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D350" s="15"/>
     </row>
-    <row r="351" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D351" s="15"/>
     </row>
-    <row r="352" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D352" s="15"/>
     </row>
-    <row r="353" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D353" s="15"/>
     </row>
-    <row r="354" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D354" s="15"/>
     </row>
-    <row r="355" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D355" s="15"/>
     </row>
-    <row r="356" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D356" s="15"/>
     </row>
-    <row r="357" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D357" s="15"/>
     </row>
-    <row r="358" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D358" s="15"/>
     </row>
-    <row r="359" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D359" s="15"/>
     </row>
-    <row r="360" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D360" s="15"/>
     </row>
-    <row r="361" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D361" s="15"/>
     </row>
-    <row r="362" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D362" s="15"/>
     </row>
-    <row r="363" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D363" s="15"/>
     </row>
-    <row r="364" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D364" s="15"/>
     </row>
-    <row r="365" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D365" s="15"/>
     </row>
-    <row r="366" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D366" s="15"/>
     </row>
-    <row r="367" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D367" s="15"/>
     </row>
-    <row r="368" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D368" s="15"/>
     </row>
-    <row r="369" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D369" s="15"/>
     </row>
-    <row r="370" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D370" s="15"/>
     </row>
-    <row r="371" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D371" s="15"/>
     </row>
-    <row r="372" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D372" s="15"/>
     </row>
-    <row r="373" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D373" s="15"/>
     </row>
-    <row r="374" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D374" s="15"/>
     </row>
-    <row r="375" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D375" s="15"/>
     </row>
-    <row r="376" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D376" s="15"/>
     </row>
-    <row r="377" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D377" s="15"/>
     </row>
-    <row r="378" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D378" s="15"/>
     </row>
-    <row r="379" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D379" s="15"/>
     </row>
-    <row r="380" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D380" s="15"/>
     </row>
-    <row r="381" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D381" s="15"/>
     </row>
-    <row r="382" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D382" s="15"/>
     </row>
-    <row r="383" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D383" s="15"/>
     </row>
-    <row r="384" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D384" s="15"/>
     </row>
-    <row r="385" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D385" s="15"/>
     </row>
-    <row r="386" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D386" s="15"/>
     </row>
-    <row r="387" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D387" s="15"/>
     </row>
-    <row r="388" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D388" s="15"/>
     </row>
-    <row r="389" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D389" s="15"/>
     </row>
-    <row r="390" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D390" s="15"/>
     </row>
-    <row r="391" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D391" s="15"/>
     </row>
-    <row r="392" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D392" s="15"/>
     </row>
-    <row r="393" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D393" s="15"/>
     </row>
-    <row r="394" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D394" s="15"/>
     </row>
-    <row r="395" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D395" s="15"/>
     </row>
-    <row r="396" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D396" s="15"/>
     </row>
-    <row r="397" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D397" s="15"/>
     </row>
-    <row r="398" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D398" s="15"/>
     </row>
-    <row r="399" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D399" s="15"/>
     </row>
-    <row r="400" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D400" s="15"/>
     </row>
-    <row r="401" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D401" s="15"/>
     </row>
-    <row r="402" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D402" s="15"/>
     </row>
-    <row r="403" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D403" s="15"/>
     </row>
-    <row r="404" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D404" s="15"/>
     </row>
-    <row r="405" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D405" s="15"/>
     </row>
-    <row r="406" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D406" s="15"/>
     </row>
-    <row r="407" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D407" s="15"/>
     </row>
-    <row r="408" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D408" s="15"/>
     </row>
-    <row r="409" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D409" s="15"/>
     </row>
-    <row r="410" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D410" s="15"/>
     </row>
-    <row r="411" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D411" s="15"/>
     </row>
-    <row r="412" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D412" s="15"/>
     </row>
-    <row r="413" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D413" s="15"/>
     </row>
-    <row r="414" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D414" s="15"/>
     </row>
-    <row r="415" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D415" s="15"/>
     </row>
-    <row r="416" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D416" s="15"/>
     </row>
-    <row r="417" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D417" s="15"/>
     </row>
-    <row r="418" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D418" s="15"/>
     </row>
-    <row r="419" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D419" s="15"/>
     </row>
-    <row r="420" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D420" s="15"/>
     </row>
-    <row r="421" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D421" s="15"/>
     </row>
-    <row r="422" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D422" s="15"/>
     </row>
-    <row r="423" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D423" s="15"/>
     </row>
-    <row r="424" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D424" s="15"/>
     </row>
-    <row r="425" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D425" s="15"/>
     </row>
-    <row r="426" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D426" s="15"/>
     </row>
-    <row r="427" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D427" s="15"/>
     </row>
-    <row r="428" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D428" s="15"/>
     </row>
-    <row r="429" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D429" s="15"/>
     </row>
-    <row r="430" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D430" s="15"/>
     </row>
-    <row r="431" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D431" s="15"/>
     </row>
-    <row r="432" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D432" s="15"/>
     </row>
-    <row r="433" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D433" s="15"/>
     </row>
-    <row r="434" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D434" s="15"/>
     </row>
-    <row r="435" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D435" s="15"/>
     </row>
-    <row r="436" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D436" s="15"/>
     </row>
-    <row r="437" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D437" s="15"/>
     </row>
-    <row r="438" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D438" s="15"/>
     </row>
-    <row r="439" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D439" s="15"/>
     </row>
-    <row r="440" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D440" s="15"/>
     </row>
-    <row r="441" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D441" s="15"/>
     </row>
-    <row r="442" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D442" s="15"/>
     </row>
-    <row r="443" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D443" s="15"/>
     </row>
-    <row r="444" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D444" s="15"/>
     </row>
-    <row r="445" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D445" s="15"/>
     </row>
-    <row r="446" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D446" s="15"/>
     </row>
-    <row r="447" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D447" s="15"/>
     </row>
-    <row r="448" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D448" s="15"/>
     </row>
-    <row r="449" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D449" s="15"/>
     </row>
-    <row r="450" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D450" s="15"/>
     </row>
-    <row r="451" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D451" s="15"/>
     </row>
-    <row r="452" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D452" s="15"/>
     </row>
-    <row r="453" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D453" s="15"/>
     </row>
-    <row r="454" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D454" s="15"/>
     </row>
-    <row r="455" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D455" s="15"/>
     </row>
-    <row r="456" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D456" s="15"/>
     </row>
-    <row r="457" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D457" s="15"/>
     </row>
-    <row r="458" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D458" s="15"/>
     </row>
-    <row r="459" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D459" s="15"/>
     </row>
-    <row r="460" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D460" s="15"/>
     </row>
-    <row r="461" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D461" s="15"/>
     </row>
-    <row r="462" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D462" s="15"/>
     </row>
-    <row r="463" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D463" s="15"/>
     </row>
-    <row r="464" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D464" s="15"/>
     </row>
-    <row r="465" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D465" s="15"/>
     </row>
-    <row r="466" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D466" s="15"/>
     </row>
-    <row r="467" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D467" s="15"/>
     </row>
-    <row r="468" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D468" s="15"/>
     </row>
-    <row r="469" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D469" s="15"/>
     </row>
-    <row r="470" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D470" s="15"/>
     </row>
-    <row r="471" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D471" s="15"/>
     </row>
-    <row r="472" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D472" s="15"/>
     </row>
-    <row r="473" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D473" s="15"/>
     </row>
-    <row r="474" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D474" s="15"/>
     </row>
-    <row r="475" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D475" s="15"/>
     </row>
-    <row r="476" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D476" s="15"/>
     </row>
-    <row r="477" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D477" s="15"/>
     </row>
-    <row r="478" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D478" s="15"/>
     </row>
-    <row r="479" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D479" s="15"/>
     </row>
-    <row r="480" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D480" s="15"/>
     </row>
-    <row r="481" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D481" s="15"/>
     </row>
-    <row r="482" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D482" s="15"/>
     </row>
-    <row r="483" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D483" s="15"/>
     </row>
-    <row r="484" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D484" s="15"/>
     </row>
-    <row r="485" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D485" s="15"/>
     </row>
-    <row r="486" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D486" s="15"/>
     </row>
-    <row r="487" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D487" s="15"/>
     </row>
-    <row r="488" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D488" s="15"/>
     </row>
-    <row r="489" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D489" s="15"/>
     </row>
-    <row r="490" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D490" s="15"/>
     </row>
-    <row r="491" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D491" s="15"/>
     </row>
-    <row r="492" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D492" s="15"/>
     </row>
-    <row r="493" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D493" s="15"/>
     </row>
-    <row r="494" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D494" s="15"/>
     </row>
-    <row r="495" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D495" s="15"/>
     </row>
-    <row r="496" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D496" s="15"/>
     </row>
-    <row r="497" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D497" s="15"/>
     </row>
-    <row r="498" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D498" s="15"/>
     </row>
-    <row r="499" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D499" s="15"/>
     </row>
-    <row r="500" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D500" s="15"/>
     </row>
-    <row r="501" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D501" s="15"/>
     </row>
-    <row r="502" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D502" s="15"/>
     </row>
-    <row r="503" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D503" s="15"/>
     </row>
-    <row r="504" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D504" s="15"/>
     </row>
-    <row r="505" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D505" s="15"/>
     </row>
-    <row r="506" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D506" s="15"/>
     </row>
-    <row r="507" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D507" s="15"/>
     </row>
-    <row r="508" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D508" s="15"/>
     </row>
-    <row r="509" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D509" s="15"/>
     </row>
-    <row r="510" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D510" s="15"/>
     </row>
-    <row r="511" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D511" s="15"/>
     </row>
-    <row r="512" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D512" s="15"/>
     </row>
-    <row r="513" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D513" s="15"/>
     </row>
-    <row r="514" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D514" s="15"/>
     </row>
-    <row r="515" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D515" s="15"/>
     </row>
-    <row r="516" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D516" s="15"/>
     </row>
-    <row r="517" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D517" s="15"/>
     </row>
-    <row r="518" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D518" s="15"/>
     </row>
-    <row r="519" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D519" s="15"/>
     </row>
-    <row r="520" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D520" s="15"/>
     </row>
-    <row r="521" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D521" s="15"/>
     </row>
-    <row r="522" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D522" s="15"/>
     </row>
-    <row r="523" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D523" s="15"/>
     </row>
-    <row r="524" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D524" s="15"/>
     </row>
-    <row r="525" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D525" s="15"/>
     </row>
-    <row r="526" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D526" s="15"/>
     </row>
-    <row r="527" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D527" s="15"/>
     </row>
-    <row r="528" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D528" s="15"/>
     </row>
-    <row r="529" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D529" s="15"/>
     </row>
-    <row r="530" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D530" s="15"/>
     </row>
-    <row r="531" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D531" s="15"/>
     </row>
-    <row r="532" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D532" s="15"/>
     </row>
-    <row r="533" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D533" s="15"/>
     </row>
-    <row r="534" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D534" s="15"/>
     </row>
-    <row r="535" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D535" s="15"/>
     </row>
-    <row r="536" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D536" s="15"/>
     </row>
-    <row r="537" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D537" s="15"/>
     </row>
-    <row r="538" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D538" s="15"/>
     </row>
-    <row r="539" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D539" s="15"/>
     </row>
-    <row r="540" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D540" s="15"/>
     </row>
-    <row r="541" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D541" s="15"/>
     </row>
-    <row r="542" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D542" s="15"/>
     </row>
-    <row r="543" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D543" s="15"/>
     </row>
-    <row r="544" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D544" s="15"/>
     </row>
-    <row r="545" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D545" s="15"/>
     </row>
-    <row r="546" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D546" s="15"/>
     </row>
-    <row r="547" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D547" s="15"/>
     </row>
-    <row r="548" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D548" s="15"/>
     </row>
-    <row r="549" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D549" s="15"/>
     </row>
-    <row r="550" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D550" s="15"/>
     </row>
-    <row r="551" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D551" s="15"/>
     </row>
-    <row r="552" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D552" s="15"/>
     </row>
-    <row r="553" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D553" s="15"/>
     </row>
-    <row r="554" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D554" s="15"/>
     </row>
-    <row r="555" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D555" s="15"/>
     </row>
-    <row r="556" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D556" s="15"/>
     </row>
-    <row r="557" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D557" s="15"/>
     </row>
-    <row r="558" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D558" s="15"/>
     </row>
-    <row r="559" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D559" s="15"/>
     </row>
-    <row r="560" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D560" s="15"/>
     </row>
-    <row r="561" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D561" s="15"/>
     </row>
-    <row r="562" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D562" s="15"/>
     </row>
-    <row r="563" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D563" s="15"/>
     </row>
-    <row r="564" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D564" s="15"/>
     </row>
-    <row r="565" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D565" s="15"/>
     </row>
-    <row r="566" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D566" s="15"/>
     </row>
-    <row r="567" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D567" s="15"/>
     </row>
-    <row r="568" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D568" s="15"/>
     </row>
-    <row r="569" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D569" s="15"/>
     </row>
-    <row r="570" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D570" s="15"/>
     </row>
-    <row r="571" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D571" s="15"/>
     </row>
-    <row r="572" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D572" s="15"/>
     </row>
-    <row r="573" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D573" s="15"/>
     </row>
-    <row r="574" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D574" s="15"/>
     </row>
-    <row r="575" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D575" s="15"/>
     </row>
-    <row r="576" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D576" s="15"/>
     </row>
-    <row r="577" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D577" s="15"/>
     </row>
-    <row r="578" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D578" s="15"/>
     </row>
-    <row r="579" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D579" s="15"/>
     </row>
-    <row r="580" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D580" s="15"/>
     </row>
-    <row r="581" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D581" s="15"/>
     </row>
-    <row r="582" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D582" s="15"/>
     </row>
-    <row r="583" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D583" s="15"/>
     </row>
-    <row r="584" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D584" s="15"/>
     </row>
-    <row r="585" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D585" s="15"/>
     </row>
-    <row r="586" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D586" s="15"/>
     </row>
-    <row r="587" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D587" s="15"/>
     </row>
-    <row r="588" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D588" s="15"/>
     </row>
-    <row r="589" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D589" s="15"/>
     </row>
-    <row r="590" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D590" s="15"/>
     </row>
-    <row r="591" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D591" s="15"/>
     </row>
-    <row r="592" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D592" s="15"/>
     </row>
-    <row r="593" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D593" s="15"/>
     </row>
-    <row r="594" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D594" s="15"/>
     </row>
-    <row r="595" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D595" s="15"/>
     </row>
-    <row r="596" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D596" s="15"/>
     </row>
-    <row r="597" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D597" s="15"/>
     </row>
-    <row r="598" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D598" s="15"/>
     </row>
-    <row r="599" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D599" s="15"/>
     </row>
-    <row r="600" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D600" s="15"/>
     </row>
-    <row r="601" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D601" s="15"/>
     </row>
-    <row r="602" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D602" s="15"/>
     </row>
-    <row r="603" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D603" s="15"/>
     </row>
-    <row r="604" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D604" s="15"/>
     </row>
-    <row r="605" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D605" s="15"/>
     </row>
-    <row r="606" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D606" s="15"/>
     </row>
-    <row r="607" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D607" s="15"/>
     </row>
-    <row r="608" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D608" s="15"/>
     </row>
-    <row r="609" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D609" s="15"/>
     </row>
-    <row r="610" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D610" s="15"/>
     </row>
-    <row r="611" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D611" s="15"/>
     </row>
-    <row r="612" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D612" s="15"/>
     </row>
-    <row r="613" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D613" s="15"/>
     </row>
-    <row r="614" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D614" s="15"/>
     </row>
-    <row r="615" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D615" s="15"/>
     </row>
-    <row r="616" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D616" s="15"/>
     </row>
-    <row r="617" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D617" s="15"/>
     </row>
-    <row r="618" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D618" s="15"/>
     </row>
-    <row r="619" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D619" s="15"/>
     </row>
-    <row r="620" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D620" s="15"/>
     </row>
-    <row r="621" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D621" s="15"/>
     </row>
-    <row r="622" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D622" s="15"/>
     </row>
-    <row r="623" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D623" s="15"/>
     </row>
-    <row r="624" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D624" s="15"/>
     </row>
-    <row r="625" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D625" s="15"/>
     </row>
-    <row r="626" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D626" s="15"/>
     </row>
-    <row r="627" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D627" s="15"/>
     </row>
-    <row r="628" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D628" s="15"/>
     </row>
-    <row r="629" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D629" s="15"/>
     </row>
-    <row r="630" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D630" s="15"/>
     </row>
-    <row r="631" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D631" s="15"/>
     </row>
-    <row r="632" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D632" s="15"/>
     </row>
-    <row r="633" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D633" s="15"/>
     </row>
-    <row r="634" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D634" s="15"/>
     </row>
-    <row r="635" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D635" s="15"/>
     </row>
-    <row r="636" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D636" s="15"/>
     </row>
-    <row r="637" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D637" s="15"/>
     </row>
-    <row r="638" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D638" s="15"/>
     </row>
-    <row r="639" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D639" s="15"/>
     </row>
-    <row r="640" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D640" s="15"/>
     </row>
-    <row r="641" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D641" s="15"/>
     </row>
-    <row r="642" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D642" s="15"/>
     </row>
-    <row r="643" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D643" s="15"/>
     </row>
-    <row r="644" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D644" s="15"/>
     </row>
-    <row r="645" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D645" s="15"/>
     </row>
-    <row r="646" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D646" s="15"/>
     </row>
-    <row r="647" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D647" s="15"/>
     </row>
-    <row r="648" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D648" s="15"/>
     </row>
-    <row r="649" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D649" s="15"/>
     </row>
-    <row r="650" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D650" s="15"/>
     </row>
-    <row r="651" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D651" s="15"/>
     </row>
-    <row r="652" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D652" s="15"/>
     </row>
-    <row r="653" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D653" s="15"/>
     </row>
-    <row r="654" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D654" s="15"/>
     </row>
-    <row r="655" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D655" s="15"/>
     </row>
-    <row r="656" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D656" s="15"/>
     </row>
-    <row r="657" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D657" s="15"/>
     </row>
-    <row r="658" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D658" s="15"/>
     </row>
-    <row r="659" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D659" s="15"/>
     </row>
-    <row r="660" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D660" s="15"/>
     </row>
-    <row r="661" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D661" s="15"/>
     </row>
-    <row r="662" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D662" s="15"/>
     </row>
-    <row r="663" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D663" s="15"/>
     </row>
-    <row r="664" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D664" s="15"/>
     </row>
-    <row r="665" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D665" s="15"/>
     </row>
-    <row r="666" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D666" s="15"/>
     </row>
-    <row r="667" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D667" s="15"/>
     </row>
-    <row r="668" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D668" s="15"/>
     </row>
-    <row r="669" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D669" s="15"/>
     </row>
-    <row r="670" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D670" s="15"/>
     </row>
-    <row r="671" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D671" s="15"/>
     </row>
-    <row r="672" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D672" s="15"/>
     </row>
-    <row r="673" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D673" s="15"/>
     </row>
-    <row r="674" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D674" s="15"/>
     </row>
-    <row r="675" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D675" s="15"/>
     </row>
-    <row r="676" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D676" s="15"/>
     </row>
-    <row r="677" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D677" s="15"/>
     </row>
-    <row r="678" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D678" s="15"/>
     </row>
-    <row r="679" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D679" s="15"/>
     </row>
-    <row r="680" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D680" s="15"/>
     </row>
-    <row r="681" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D681" s="15"/>
     </row>
-    <row r="682" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D682" s="15"/>
     </row>
-    <row r="683" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D683" s="15"/>
     </row>
-    <row r="684" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D684" s="15"/>
     </row>
-    <row r="685" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D685" s="15"/>
     </row>
-    <row r="686" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D686" s="15"/>
     </row>
-    <row r="687" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D687" s="15"/>
     </row>
-    <row r="688" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D688" s="15"/>
     </row>
-    <row r="689" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D689" s="15"/>
     </row>
-    <row r="690" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D690" s="15"/>
     </row>
-    <row r="691" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D691" s="15"/>
     </row>
-    <row r="692" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D692" s="15"/>
     </row>
-    <row r="693" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D693" s="15"/>
     </row>
-    <row r="694" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D694" s="15"/>
     </row>
-    <row r="695" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D695" s="15"/>
     </row>
-    <row r="696" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D696" s="15"/>
     </row>
-    <row r="697" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D697" s="15"/>
     </row>
-    <row r="698" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D698" s="15"/>
     </row>
-    <row r="699" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D699" s="15"/>
     </row>
-    <row r="700" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D700" s="15"/>
     </row>
-    <row r="701" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D701" s="15"/>
     </row>
-    <row r="702" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D702" s="15"/>
     </row>
-    <row r="703" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D703" s="15"/>
     </row>
-    <row r="704" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D704" s="15"/>
     </row>
-    <row r="705" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D705" s="15"/>
     </row>
-    <row r="706" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D706" s="15"/>
     </row>
-    <row r="707" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D707" s="15"/>
     </row>
-    <row r="708" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D708" s="15"/>
     </row>
-    <row r="709" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D709" s="15"/>
     </row>
-    <row r="710" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D710" s="15"/>
     </row>
-    <row r="711" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D711" s="15"/>
     </row>
-    <row r="712" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D712" s="15"/>
     </row>
-    <row r="713" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D713" s="15"/>
     </row>
-    <row r="714" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D714" s="15"/>
     </row>
-    <row r="715" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D715" s="15"/>
     </row>
-    <row r="716" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D716" s="15"/>
     </row>
-    <row r="717" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D717" s="15"/>
     </row>
-    <row r="718" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D718" s="15"/>
     </row>
-    <row r="719" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D719" s="15"/>
     </row>
-    <row r="720" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D720" s="15"/>
     </row>
-    <row r="721" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D721" s="15"/>
     </row>
-    <row r="722" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D722" s="15"/>
     </row>
-    <row r="723" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D723" s="15"/>
     </row>
-    <row r="724" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D724" s="15"/>
     </row>
-    <row r="725" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D725" s="15"/>
     </row>
-    <row r="726" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D726" s="15"/>
     </row>
-    <row r="727" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D727" s="15"/>
     </row>
-    <row r="728" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D728" s="15"/>
     </row>
-    <row r="729" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D729" s="15"/>
     </row>
-    <row r="730" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D730" s="15"/>
     </row>
-    <row r="731" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D731" s="15"/>
     </row>
-    <row r="732" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D732" s="15"/>
     </row>
-    <row r="733" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D733" s="15"/>
     </row>
-    <row r="734" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D734" s="15"/>
     </row>
-    <row r="735" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D735" s="15"/>
     </row>
-    <row r="736" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D736" s="15"/>
     </row>
-    <row r="737" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D737" s="15"/>
     </row>
-    <row r="738" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D738" s="15"/>
     </row>
-    <row r="739" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D739" s="15"/>
     </row>
-    <row r="740" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D740" s="15"/>
     </row>
-    <row r="741" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D741" s="15"/>
     </row>
-    <row r="742" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D742" s="15"/>
     </row>
-    <row r="743" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D743" s="15"/>
     </row>
-    <row r="744" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D744" s="15"/>
     </row>
-    <row r="745" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D745" s="15"/>
     </row>
-    <row r="746" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D746" s="15"/>
     </row>
-    <row r="747" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D747" s="15"/>
     </row>
-    <row r="748" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D748" s="15"/>
     </row>
-    <row r="749" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D749" s="15"/>
     </row>
-    <row r="750" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D750" s="15"/>
     </row>
-    <row r="751" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D751" s="15"/>
     </row>
-    <row r="752" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D752" s="15"/>
     </row>
-    <row r="753" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D753" s="15"/>
     </row>
-    <row r="754" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D754" s="15"/>
     </row>
-    <row r="755" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D755" s="15"/>
     </row>
-    <row r="756" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D756" s="15"/>
     </row>
-    <row r="757" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D757" s="15"/>
     </row>
-    <row r="758" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D758" s="15"/>
     </row>
-    <row r="759" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D759" s="15"/>
     </row>
-    <row r="760" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D760" s="15"/>
     </row>
-    <row r="761" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D761" s="15"/>
     </row>
-    <row r="762" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D762" s="15"/>
     </row>
-    <row r="763" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D763" s="15"/>
     </row>
-    <row r="764" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D764" s="15"/>
     </row>
-    <row r="765" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D765" s="15"/>
     </row>
-    <row r="766" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D766" s="15"/>
     </row>
-    <row r="767" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D767" s="15"/>
     </row>
-    <row r="768" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D768" s="15"/>
     </row>
-    <row r="769" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D769" s="15"/>
     </row>
-    <row r="770" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D770" s="15"/>
     </row>
-    <row r="771" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D771" s="15"/>
     </row>
-    <row r="772" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D772" s="15"/>
     </row>
-    <row r="773" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D773" s="15"/>
     </row>
-    <row r="774" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D774" s="15"/>
     </row>
-    <row r="775" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D775" s="15"/>
     </row>
-    <row r="776" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D776" s="15"/>
     </row>
-    <row r="777" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D777" s="15"/>
     </row>
-    <row r="778" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D778" s="15"/>
     </row>
-    <row r="779" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D779" s="15"/>
     </row>
-    <row r="780" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D780" s="15"/>
     </row>
-    <row r="781" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D781" s="15"/>
     </row>
-    <row r="782" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D782" s="15"/>
     </row>
-    <row r="783" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D783" s="15"/>
     </row>
-    <row r="784" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D784" s="15"/>
     </row>
-    <row r="785" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D785" s="15"/>
     </row>
-    <row r="786" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D786" s="15"/>
     </row>
-    <row r="787" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D787" s="15"/>
     </row>
-    <row r="788" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D788" s="15"/>
     </row>
-    <row r="789" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D789" s="15"/>
     </row>
-    <row r="790" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D790" s="15"/>
     </row>
-    <row r="791" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D791" s="15"/>
     </row>
-    <row r="792" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D792" s="15"/>
     </row>
-    <row r="793" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D793" s="15"/>
     </row>
-    <row r="794" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D794" s="15"/>
     </row>
-    <row r="795" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D795" s="15"/>
     </row>
-    <row r="796" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D796" s="15"/>
     </row>
-    <row r="797" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D797" s="15"/>
     </row>
-    <row r="798" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D798" s="15"/>
     </row>
-    <row r="799" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D799" s="15"/>
     </row>
-    <row r="800" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D800" s="15"/>
     </row>
-    <row r="801" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D801" s="15"/>
     </row>
-    <row r="802" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D802" s="15"/>
     </row>
-    <row r="803" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D803" s="15"/>
     </row>
-    <row r="804" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D804" s="15"/>
     </row>
-    <row r="805" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D805" s="15"/>
     </row>
-    <row r="806" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D806" s="15"/>
     </row>
-    <row r="807" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D807" s="15"/>
     </row>
-    <row r="808" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D808" s="15"/>
     </row>
-    <row r="809" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D809" s="15"/>
     </row>
-    <row r="810" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D810" s="15"/>
     </row>
-    <row r="811" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D811" s="15"/>
     </row>
-    <row r="812" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D812" s="15"/>
     </row>
-    <row r="813" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D813" s="15"/>
     </row>
-    <row r="814" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D814" s="15"/>
     </row>
-    <row r="815" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D815" s="15"/>
     </row>
-    <row r="816" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D816" s="15"/>
     </row>
-    <row r="817" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D817" s="15"/>
     </row>
-    <row r="818" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D818" s="15"/>
     </row>
-    <row r="819" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D819" s="15"/>
     </row>
-    <row r="820" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D820" s="15"/>
     </row>
-    <row r="821" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D821" s="15"/>
     </row>
-    <row r="822" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D822" s="15"/>
     </row>
-    <row r="823" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D823" s="15"/>
     </row>
-    <row r="824" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D824" s="15"/>
     </row>
-    <row r="825" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D825" s="15"/>
     </row>
-    <row r="826" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D826" s="15"/>
     </row>
-    <row r="827" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D827" s="15"/>
     </row>
-    <row r="828" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D828" s="15"/>
     </row>
-    <row r="829" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D829" s="15"/>
     </row>
-    <row r="830" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D830" s="15"/>
     </row>
-    <row r="831" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D831" s="15"/>
     </row>
-    <row r="832" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D832" s="15"/>
     </row>
-    <row r="833" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D833" s="15"/>
     </row>
-    <row r="834" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D834" s="15"/>
     </row>
-    <row r="835" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D835" s="15"/>
     </row>
-    <row r="836" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D836" s="15"/>
     </row>
-    <row r="837" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D837" s="15"/>
     </row>
-    <row r="838" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D838" s="15"/>
     </row>
-    <row r="839" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D839" s="15"/>
     </row>
-    <row r="840" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D840" s="15"/>
     </row>
-    <row r="841" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D841" s="15"/>
     </row>
-    <row r="842" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D842" s="15"/>
     </row>
-    <row r="843" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D843" s="15"/>
     </row>
-    <row r="844" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D844" s="15"/>
     </row>
-    <row r="845" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D845" s="15"/>
     </row>
-    <row r="846" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D846" s="15"/>
     </row>
-    <row r="847" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D847" s="15"/>
     </row>
-    <row r="848" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D848" s="15"/>
     </row>
-    <row r="849" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D849" s="15"/>
     </row>
-    <row r="850" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D850" s="15"/>
     </row>
-    <row r="851" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D851" s="15"/>
     </row>
-    <row r="852" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D852" s="15"/>
     </row>
-    <row r="853" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D853" s="15"/>
     </row>
-    <row r="854" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D854" s="15"/>
     </row>
-    <row r="855" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D855" s="15"/>
     </row>
-    <row r="856" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D856" s="15"/>
     </row>
-    <row r="857" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D857" s="15"/>
     </row>
-    <row r="858" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D858" s="15"/>
     </row>
-    <row r="859" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D859" s="15"/>
     </row>
-    <row r="860" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D860" s="15"/>
     </row>
-    <row r="861" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D861" s="15"/>
     </row>
-    <row r="862" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D862" s="15"/>
     </row>
-    <row r="863" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D863" s="15"/>
     </row>
-    <row r="864" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D864" s="15"/>
     </row>
-    <row r="865" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D865" s="15"/>
     </row>
-    <row r="866" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D866" s="15"/>
     </row>
-    <row r="867" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D867" s="15"/>
     </row>
-    <row r="868" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D868" s="15"/>
     </row>
-    <row r="869" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D869" s="15"/>
     </row>
-    <row r="870" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D870" s="15"/>
     </row>
-    <row r="871" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D871" s="15"/>
     </row>
-    <row r="872" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D872" s="15"/>
     </row>
-    <row r="873" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D873" s="15"/>
     </row>
-    <row r="874" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D874" s="15"/>
     </row>
-    <row r="875" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D875" s="15"/>
     </row>
-    <row r="876" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D876" s="15"/>
     </row>
-    <row r="877" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D877" s="15"/>
     </row>
-    <row r="878" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D878" s="15"/>
     </row>
-    <row r="879" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D879" s="15"/>
     </row>
-    <row r="880" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D880" s="15"/>
     </row>
-    <row r="881" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D881" s="15"/>
     </row>
-    <row r="882" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D882" s="15"/>
     </row>
-    <row r="883" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D883" s="15"/>
     </row>
-    <row r="884" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D884" s="15"/>
     </row>
-    <row r="885" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D885" s="15"/>
     </row>
-    <row r="886" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D886" s="15"/>
     </row>
-    <row r="887" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D887" s="15"/>
     </row>
-    <row r="888" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D888" s="15"/>
     </row>
-    <row r="889" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D889" s="15"/>
     </row>
-    <row r="890" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D890" s="15"/>
     </row>
-    <row r="891" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D891" s="15"/>
     </row>
-    <row r="892" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D892" s="15"/>
     </row>
-    <row r="893" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D893" s="15"/>
     </row>
-    <row r="894" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D894" s="15"/>
     </row>
-    <row r="895" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D895" s="15"/>
     </row>
-    <row r="896" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D896" s="15"/>
     </row>
-    <row r="897" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D897" s="15"/>
     </row>
-    <row r="898" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D898" s="15"/>
     </row>
-    <row r="899" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D899" s="15"/>
     </row>
-    <row r="900" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D900" s="15"/>
     </row>
-    <row r="901" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D901" s="15"/>
     </row>
-    <row r="902" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D902" s="15"/>
     </row>
-    <row r="903" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D903" s="15"/>
     </row>
-    <row r="904" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D904" s="15"/>
     </row>
-    <row r="905" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D905" s="15"/>
     </row>
-    <row r="906" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D906" s="15"/>
     </row>
-    <row r="907" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D907" s="15"/>
     </row>
-    <row r="908" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D908" s="15"/>
     </row>
-    <row r="909" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D909" s="15"/>
     </row>
-    <row r="910" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D910" s="15"/>
     </row>
-    <row r="911" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D911" s="15"/>
     </row>
-    <row r="912" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D912" s="15"/>
     </row>
-    <row r="913" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D913" s="15"/>
     </row>
-    <row r="914" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D914" s="15"/>
     </row>
-    <row r="915" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D915" s="15"/>
     </row>
-    <row r="916" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D916" s="15"/>
     </row>
-    <row r="917" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D917" s="15"/>
     </row>
-    <row r="918" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D918" s="15"/>
     </row>
-    <row r="919" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D919" s="15"/>
     </row>
-    <row r="920" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D920" s="15"/>
     </row>
-    <row r="921" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D921" s="15"/>
     </row>
-    <row r="922" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D922" s="15"/>
     </row>
-    <row r="923" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D923" s="15"/>
     </row>
-    <row r="924" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D924" s="15"/>
     </row>
-    <row r="925" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D925" s="15"/>
     </row>
-    <row r="926" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D926" s="15"/>
     </row>
-    <row r="927" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D927" s="15"/>
     </row>
-    <row r="928" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D928" s="15"/>
     </row>
-    <row r="929" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D929" s="15"/>
     </row>
-    <row r="930" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D930" s="15"/>
     </row>
-    <row r="931" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D931" s="15"/>
     </row>
-    <row r="932" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D932" s="15"/>
     </row>
-    <row r="933" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D933" s="15"/>
     </row>
-    <row r="934" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D934" s="15"/>
     </row>
-    <row r="935" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D935" s="15"/>
     </row>
-    <row r="936" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D936" s="15"/>
     </row>
-    <row r="937" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D937" s="15"/>
     </row>
-    <row r="938" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D938" s="15"/>
     </row>
-    <row r="939" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D939" s="15"/>
     </row>
-    <row r="940" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D940" s="15"/>
     </row>
-    <row r="941" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D941" s="15"/>
     </row>
-    <row r="942" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D942" s="15"/>
     </row>
-    <row r="943" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D943" s="15"/>
     </row>
-    <row r="944" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D944" s="15"/>
     </row>
-    <row r="945" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D945" s="15"/>
     </row>
-    <row r="946" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D946" s="15"/>
     </row>
-    <row r="947" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D947" s="15"/>
     </row>
-    <row r="948" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D948" s="15"/>
     </row>
-    <row r="949" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D949" s="15"/>
     </row>
-    <row r="950" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D950" s="15"/>
     </row>
-    <row r="951" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D951" s="15"/>
     </row>
-    <row r="952" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D952" s="15"/>
     </row>
-    <row r="953" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D953" s="15"/>
     </row>
-    <row r="954" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D954" s="15"/>
     </row>
-    <row r="955" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D955" s="15"/>
     </row>
-    <row r="956" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D956" s="15"/>
     </row>
-    <row r="957" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D957" s="15"/>
     </row>
-    <row r="958" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D958" s="15"/>
     </row>
-    <row r="959" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D959" s="15"/>
     </row>
-    <row r="960" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D960" s="15"/>
     </row>
-    <row r="961" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D961" s="15"/>
     </row>
-    <row r="962" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D962" s="15"/>
     </row>
-    <row r="963" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D963" s="15"/>
     </row>
-    <row r="964" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D964" s="15"/>
     </row>
-    <row r="965" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D965" s="15"/>
     </row>
-    <row r="966" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D966" s="15"/>
     </row>
-    <row r="967" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D967" s="15"/>
     </row>
-    <row r="968" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D968" s="15"/>
     </row>
-    <row r="969" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D969" s="15"/>
     </row>
-    <row r="970" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D970" s="15"/>
     </row>
-    <row r="971" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D971" s="15"/>
     </row>
-    <row r="972" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D972" s="15"/>
     </row>
-    <row r="973" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D973" s="15"/>
     </row>
-    <row r="974" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D974" s="15"/>
     </row>
-    <row r="975" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D975" s="15"/>
     </row>
-    <row r="976" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D976" s="15"/>
     </row>
-    <row r="977" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D977" s="15"/>
     </row>
-    <row r="978" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D978" s="15"/>
     </row>
-    <row r="979" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D979" s="15"/>
     </row>
-    <row r="980" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D980" s="15"/>
     </row>
-    <row r="981" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D981" s="15"/>
     </row>
-    <row r="982" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D982" s="15"/>
     </row>
-    <row r="983" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D983" s="15"/>
     </row>
-    <row r="984" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D984" s="15"/>
     </row>
-    <row r="985" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D985" s="15"/>
     </row>
-    <row r="986" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D986" s="15"/>
     </row>
-    <row r="987" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D987" s="15"/>
     </row>
-    <row r="988" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D988" s="15"/>
     </row>
-    <row r="989" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D989" s="15"/>
     </row>
-    <row r="990" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D990" s="15"/>
     </row>
-    <row r="991" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D991" s="15"/>
     </row>
-    <row r="992" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D992" s="15"/>
     </row>
-    <row r="993" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D993" s="15"/>
     </row>
-    <row r="994" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D994" s="15"/>
     </row>
-    <row r="995" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D995" s="15"/>
     </row>
-    <row r="996" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D996" s="15"/>
     </row>
-    <row r="997" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D997" s="15"/>
     </row>
-    <row r="998" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D998" s="15"/>
     </row>
-    <row r="999" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D999" s="15"/>
     </row>
-    <row r="1000" spans="4:4" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D1000" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z1000" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="4"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A3:G41">
-      <sortCondition ref="B1:B1000"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -16067,7 +16422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/mechanical_turk/Dialogue.xlsx
+++ b/mechanical_turk/Dialogue.xlsx
@@ -2778,7 +2778,7 @@
   </sheetPr>
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
       <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
